--- a/proposal_ai_agent/DB/proposal/research_results/research_results_20250615.xlsx
+++ b/proposal_ai_agent/DB/proposal/research_results/research_results_20250615.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -283,12 +283,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -296,8 +296,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -343,15 +350,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,6 +437,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -459,6 +472,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,14 +648,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="47.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -669,7 +688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -683,7 +702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -697,7 +716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -711,7 +730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -725,7 +744,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -739,7 +758,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -753,7 +772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -767,7 +786,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -781,7 +800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -795,7 +814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -809,7 +828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -823,7 +842,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -837,7 +856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -851,7 +870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -865,7 +884,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -879,7 +898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -893,7 +912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -907,7 +926,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -921,7 +940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -935,7 +954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -949,7 +968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -963,7 +982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -977,7 +996,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -992,6 +1011,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>